--- a/HTML-CSS/27. Cas - Test/Test-HTML-CSS.xlsx
+++ b/HTML-CSS/27. Cas - Test/Test-HTML-CSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzenankosuta/Documents/GitHub/it-camp-4-grupa/HTML-CSS/27. Cas - Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0211CA-DAB3-F34A-BC06-F1FFC3067FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B0D902-11FE-1D47-AECA-09000C644550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="3400" windowWidth="11740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -610,12 +610,18 @@
       <c r="C4" s="2">
         <v>27</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3">
+        <v>18</v>
+      </c>
       <c r="G4" s="4">
         <f>C4+D4+E4+F4</f>
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -628,12 +634,18 @@
       <c r="C5" s="2">
         <v>27</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>20</v>
+      </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G20" si="0">C5+D5+E5+F5</f>
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -646,12 +658,18 @@
       <c r="C6" s="2">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16</v>
+      </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -664,12 +682,18 @@
       <c r="C7" s="2">
         <v>28</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>18</v>
+      </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -682,12 +706,18 @@
       <c r="C8" s="2">
         <v>30</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>18</v>
+      </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -700,12 +730,18 @@
       <c r="C9" s="2">
         <v>27</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18</v>
+      </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -718,12 +754,18 @@
       <c r="C10" s="2">
         <v>28</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>18</v>
+      </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -736,12 +778,18 @@
       <c r="C11" s="2">
         <v>30</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="3">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18</v>
+      </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -754,12 +802,18 @@
       <c r="C12" s="2">
         <v>30</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15</v>
+      </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -772,12 +826,18 @@
       <c r="C13" s="2">
         <v>28</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -790,12 +850,18 @@
       <c r="C14" s="2">
         <v>30</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20</v>
+      </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -808,12 +874,18 @@
       <c r="C15" s="2">
         <v>27</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>18</v>
+      </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -826,12 +898,18 @@
       <c r="C16" s="2">
         <v>28</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3">
+        <v>16</v>
+      </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -844,12 +922,18 @@
       <c r="C17" s="2">
         <v>22</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="3">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3">
+        <v>18</v>
+      </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -862,12 +946,18 @@
       <c r="C18" s="2">
         <v>21</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="3">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16</v>
+      </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">

--- a/HTML-CSS/27. Cas - Test/Test-HTML-CSS.xlsx
+++ b/HTML-CSS/27. Cas - Test/Test-HTML-CSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzenankosuta/Documents/GitHub/it-camp-4-grupa/HTML-CSS/27. Cas - Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B0D902-11FE-1D47-AECA-09000C644550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339298C0-4256-B341-8FA2-29C184509135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,13 +967,21 @@
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="2">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3">
+        <v>18</v>
+      </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
